--- a/results/RESULTS-MODELS.xlsx
+++ b/results/RESULTS-MODELS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anaes\Documents\MASTER\SRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACAFFB2-14D1-44CC-AA71-8E7A2F5AF870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A744CE-EA42-476B-9F50-5D38657C70F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-13164" windowWidth="30936" windowHeight="16896" xr2:uid="{B9F4C959-68C8-4781-BAB8-B2A8017DE649}"/>
+    <workbookView xWindow="-4200" yWindow="-17388" windowWidth="30936" windowHeight="16896" xr2:uid="{B9F4C959-68C8-4781-BAB8-B2A8017DE649}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="153">
   <si>
     <t>PARENT</t>
   </si>
@@ -408,6 +408,93 @@
   </si>
   <si>
     <t>Not learning</t>
+  </si>
+  <si>
+    <t>0.05918</t>
+  </si>
+  <si>
+    <t>0.09731</t>
+  </si>
+  <si>
+    <t>0.08047</t>
+  </si>
+  <si>
+    <t>0.15088</t>
+  </si>
+  <si>
+    <t>0.06957</t>
+  </si>
+  <si>
+    <t>0.18751</t>
+  </si>
+  <si>
+    <t>0.05385</t>
+  </si>
+  <si>
+    <t>0.09998</t>
+  </si>
+  <si>
+    <t>0.18660</t>
+  </si>
+  <si>
+    <t>0.08171</t>
+  </si>
+  <si>
+    <t>0.16867</t>
+  </si>
+  <si>
+    <t>remove cyclic</t>
+  </si>
+  <si>
+    <t>double cyclic</t>
+  </si>
+  <si>
+    <t>0.12037</t>
+  </si>
+  <si>
+    <t>0.36299</t>
+  </si>
+  <si>
+    <t>0.09643</t>
+  </si>
+  <si>
+    <t>0.25201</t>
+  </si>
+  <si>
+    <t>0.09672</t>
+  </si>
+  <si>
+    <t>0.31416</t>
+  </si>
+  <si>
+    <t>0.03816</t>
+  </si>
+  <si>
+    <t>0.19563</t>
+  </si>
+  <si>
+    <t>0.03118</t>
+  </si>
+  <si>
+    <t>0.212584</t>
+  </si>
+  <si>
+    <t>0.02901</t>
+  </si>
+  <si>
+    <t>0.11601</t>
+  </si>
+  <si>
+    <t>0.01064</t>
+  </si>
+  <si>
+    <t>0.02525</t>
+  </si>
+  <si>
+    <t>0.00867</t>
+  </si>
+  <si>
+    <t>0.01852</t>
   </si>
 </sst>
 </file>
@@ -609,7 +696,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -677,6 +764,15 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -695,14 +791,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1043,10 +1142,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2371533A-162A-4CA4-92D8-3ABB9BC6C4AF}">
-  <dimension ref="A1:V25"/>
+  <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1068,30 +1167,30 @@
         <v>2</v>
       </c>
       <c r="C1" s="4"/>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="23" t="s">
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="23" t="s">
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="23" t="s">
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="24"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="27"/>
       <c r="T1" s="16"/>
     </row>
     <row r="2" spans="1:22" ht="23.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1148,7 +1247,7 @@
       </c>
     </row>
     <row r="3" spans="1:22" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="29" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="13"/>
@@ -1172,8 +1271,8 @@
       <c r="T3" s="15"/>
     </row>
     <row r="4" spans="1:22" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="27"/>
-      <c r="B4" s="30" t="s">
+      <c r="A4" s="30"/>
+      <c r="B4" s="24" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2"/>
@@ -1227,8 +1326,8 @@
       </c>
     </row>
     <row r="5" spans="1:22" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="27"/>
-      <c r="B5" s="30" t="s">
+      <c r="A5" s="30"/>
+      <c r="B5" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="2"/>
@@ -1282,7 +1381,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="28"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
       <c r="D6" s="11"/>
@@ -1303,7 +1402,7 @@
       <c r="S6" s="12"/>
     </row>
     <row r="7" spans="1:22" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="29" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="13"/>
@@ -1324,17 +1423,17 @@
       <c r="Q7" s="13"/>
       <c r="R7" s="13"/>
       <c r="S7" s="14"/>
-      <c r="U7" s="29"/>
+      <c r="U7" s="23"/>
       <c r="V7" s="1" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="27"/>
-      <c r="B8" s="1" t="s">
+      <c r="A8" s="30"/>
+      <c r="B8" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="28">
         <v>128</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1373,18 +1472,29 @@
       <c r="O8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="S8" s="2"/>
-      <c r="U8" s="31"/>
+      <c r="P8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="U8" s="25"/>
       <c r="V8" s="1" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="27"/>
-      <c r="B9" s="1" t="s">
+      <c r="A9" s="30"/>
+      <c r="B9" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="25"/>
+      <c r="C9" s="28"/>
       <c r="D9" s="9" t="s">
         <v>14</v>
       </c>
@@ -1427,14 +1537,19 @@
       <c r="Q9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="S9" s="2"/>
-      <c r="U9" s="30"/>
+      <c r="R9" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="U9" s="24"/>
       <c r="V9" s="1" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="27"/>
+      <c r="A10" s="30"/>
       <c r="C10" s="2"/>
       <c r="G10" s="2"/>
       <c r="K10" s="2"/>
@@ -1442,11 +1557,11 @@
       <c r="S10" s="2"/>
     </row>
     <row r="11" spans="1:22" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="27"/>
-      <c r="B11" s="29" t="s">
+      <c r="A11" s="30"/>
+      <c r="B11" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="28">
         <v>256</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1499,11 +1614,11 @@
       </c>
     </row>
     <row r="12" spans="1:22" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="27"/>
-      <c r="B12" s="29" t="s">
+      <c r="A12" s="30"/>
+      <c r="B12" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="25"/>
+      <c r="C12" s="28"/>
       <c r="D12" s="9" t="s">
         <v>14</v>
       </c>
@@ -1554,7 +1669,7 @@
       </c>
     </row>
     <row r="13" spans="1:22" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="27"/>
+      <c r="A13" s="30"/>
       <c r="C13" s="2"/>
       <c r="G13" s="2"/>
       <c r="K13" s="2"/>
@@ -1562,11 +1677,11 @@
       <c r="S13" s="2"/>
     </row>
     <row r="14" spans="1:22" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="27"/>
-      <c r="B14" s="1" t="s">
+      <c r="A14" s="30"/>
+      <c r="B14" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="28" t="s">
         <v>23</v>
       </c>
       <c r="G14" s="2"/>
@@ -1583,20 +1698,27 @@
         <v>85</v>
       </c>
       <c r="O14" s="2"/>
-      <c r="S14" s="2"/>
+      <c r="P14" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="15" spans="1:22" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="27"/>
-      <c r="B15" s="1" t="s">
+      <c r="A15" s="30"/>
+      <c r="B15" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="C15" s="28"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
       <c r="G15" s="2"/>
       <c r="H15" s="9" t="s">
         <v>14</v>
@@ -1610,12 +1732,8 @@
       <c r="K15" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="L15" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="M15" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
       <c r="O15" s="2"/>
       <c r="P15" s="9" t="s">
         <v>14</v>
@@ -1623,10 +1741,15 @@
       <c r="Q15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="S15" s="2"/>
+      <c r="R15" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="16" spans="1:22" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="28"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="11"/>
       <c r="C16" s="12"/>
       <c r="D16" s="11"/>
@@ -1647,7 +1770,7 @@
       <c r="S16" s="12"/>
     </row>
     <row r="17" spans="1:19" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="29" t="s">
         <v>86</v>
       </c>
       <c r="B17" s="13"/>
@@ -1670,8 +1793,8 @@
       <c r="S17" s="14"/>
     </row>
     <row r="18" spans="1:19" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="27"/>
-      <c r="B18" s="31" t="s">
+      <c r="A18" s="33"/>
+      <c r="B18" s="25" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="2"/>
@@ -1725,8 +1848,8 @@
       </c>
     </row>
     <row r="19" spans="1:19" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="27"/>
-      <c r="B19" s="31" t="s">
+      <c r="A19" s="33"/>
+      <c r="B19" s="25" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="2"/>
@@ -1779,181 +1902,305 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="28"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="12"/>
+    <row r="20" spans="1:19" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="33"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="2"/>
     </row>
     <row r="21" spans="1:19" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="33"/>
+      <c r="B21" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H21" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="I21" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="J21" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="L21" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="M21" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="N21" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="P21" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q21" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="R21" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="33"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="2"/>
+    </row>
+    <row r="23" spans="1:19" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="33"/>
+      <c r="B23" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="32"/>
+      <c r="S23" s="2"/>
+    </row>
+    <row r="24" spans="1:19" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="31"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="2"/>
+    </row>
+    <row r="25" spans="1:19" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="14"/>
-    </row>
-    <row r="22" spans="1:19" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="27"/>
-      <c r="B22" s="30" t="s">
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="14"/>
+    </row>
+    <row r="26" spans="1:19" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="30"/>
+      <c r="B26" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="20">
+      <c r="C26" s="2"/>
+      <c r="D26" s="20">
         <v>1.1332</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E26" s="20">
         <v>4.4520400000000002</v>
       </c>
-      <c r="F22" s="20">
+      <c r="F26" s="20">
         <v>2.6859999999999998E-2</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G26" s="21">
         <v>4.725E-2</v>
       </c>
-      <c r="K22" s="2"/>
-      <c r="L22" s="1" t="s">
+      <c r="K26" s="2"/>
+      <c r="L26" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="M26" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="N26" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="O22" s="2" t="s">
+      <c r="O26" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="P22" s="17">
+      <c r="P26" s="17">
         <v>1.65974</v>
       </c>
-      <c r="Q22" s="17">
+      <c r="Q26" s="17">
         <v>2.2965599999999999</v>
       </c>
-      <c r="R22" s="17">
+      <c r="R26" s="17">
         <v>0.12458</v>
       </c>
-      <c r="S22" s="18">
+      <c r="S26" s="18">
         <v>0.28676000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="27"/>
-      <c r="B23" s="30" t="s">
+    <row r="27" spans="1:19" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="30"/>
+      <c r="B27" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="20">
+      <c r="C27" s="2"/>
+      <c r="D27" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="20">
         <v>6.8900000000000003E-3</v>
       </c>
-      <c r="G23" s="21">
+      <c r="G27" s="21">
         <v>1.9650000000000001E-2</v>
       </c>
-      <c r="H23" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" s="1" t="s">
+      <c r="H27" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="K27" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="L23" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="M23" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="N23" s="1" t="s">
+      <c r="L27" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M27" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="N27" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="O23" s="2" t="s">
+      <c r="O27" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="P23" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q23" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="R23" s="17" t="s">
+      <c r="P27" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q27" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="R27" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="S23" s="18" t="s">
+      <c r="S27" s="18" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="28"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="12"/>
-    </row>
-    <row r="25" spans="1:19" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="P25" s="13"/>
+    <row r="28" spans="1:19" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="31"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="12"/>
+    </row>
+    <row r="29" spans="1:19" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P29" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A25:A28"/>
     <mergeCell ref="C11:C12"/>
+    <mergeCell ref="A17:A24"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="L1:O1"/>
